--- a/CAD model/link properties.xlsx
+++ b/CAD model/link properties.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mesih\Dropbox\roman3d\CAD model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9261CB-7AED-4D8B-A96A-F803E893686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t xml:space="preserve">Measured </t>
   </si>
@@ -106,6 +111,33 @@
   </si>
   <si>
     <t>App. CMass (mm)</t>
+  </si>
+  <si>
+    <t>(m1+m2)*l1*l1+m2*l2*l2</t>
+  </si>
+  <si>
+    <t>m2*l1*l2</t>
+  </si>
+  <si>
+    <t>m2*l2*l2</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2DOF </t>
+  </si>
+  <si>
+    <t>3DOF</t>
   </si>
 </sst>
 </file>
@@ -115,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,6 +208,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -186,13 +233,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -522,7 +569,7 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,7 +585,7 @@
         <v>433.8</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +593,7 @@
         <v>272.2</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,7 +601,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,7 +609,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,16 +617,15 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -593,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +656,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,7 +673,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
@@ -644,7 +690,15 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -655,8 +709,25 @@
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="K16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="8">
+        <f>(R16+R17)*R18*R18+R17*R19*R19</f>
+        <v>6.9418249999999987E-2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16">
+        <f>C11</f>
+        <v>1.6528</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,8 +738,25 @@
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="K17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="8">
+        <f>R17*R19*R19</f>
+        <v>9.9170000000000022E-3</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17">
+        <f>C12+C13</f>
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -679,8 +767,25 @@
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="K18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8">
+        <f>R17*R18*R19</f>
+        <v>1.48755E-2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18">
+        <f>D11</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -691,8 +796,15 @@
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19">
+        <f>D12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -715,8 +827,11 @@
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -724,8 +839,11 @@
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -733,8 +851,11 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -743,12 +864,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -762,7 +883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
@@ -779,7 +900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,7 +917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
